--- a/Math353Data.xlsx
+++ b/Math353Data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\public_html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0065AA65-6E51-46BC-B26D-01749ADD3D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7735ABDB-9723-4048-B763-47C3810EAC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{2BB882B7-595F-49B1-A03D-4CFCB859DDE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Squat" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -199,6 +197,87 @@
   </si>
   <si>
     <t>Grant Higa</t>
+  </si>
+  <si>
+    <t>MENS</t>
+  </si>
+  <si>
+    <t>WOMENS</t>
+  </si>
+  <si>
+    <t>Stephanie Rattunde</t>
+  </si>
+  <si>
+    <t>Heather Connor</t>
+  </si>
+  <si>
+    <t>Suzanne Hartwig-Gary</t>
+  </si>
+  <si>
+    <t>Maya Wright</t>
+  </si>
+  <si>
+    <t>Meghan Scanlon</t>
+  </si>
+  <si>
+    <t>Autumn Greene</t>
+  </si>
+  <si>
+    <t>Alicia Webb</t>
+  </si>
+  <si>
+    <t>Amanda Lawrence</t>
+  </si>
+  <si>
+    <t>Patricia Johnson</t>
+  </si>
+  <si>
+    <t>Bonica Brown</t>
+  </si>
+  <si>
+    <t>Demetria Thaten</t>
+  </si>
+  <si>
+    <t>Jamie Fisher</t>
+  </si>
+  <si>
+    <t>Caitlin Berry</t>
+  </si>
+  <si>
+    <t>Jennifer Thompson</t>
+  </si>
+  <si>
+    <t>Jasmyn Penn</t>
+  </si>
+  <si>
+    <t>Tammy Walker</t>
+  </si>
+  <si>
+    <t>Daniella Melo</t>
+  </si>
+  <si>
+    <t>Mahailya Reeves</t>
+  </si>
+  <si>
+    <t>Marisa Inda</t>
+  </si>
+  <si>
+    <t>Moriah Boldon</t>
+  </si>
+  <si>
+    <t>Natalie Richards</t>
+  </si>
+  <si>
+    <t>Samantha Calhoun</t>
+  </si>
+  <si>
+    <t>Kimberly Walford</t>
+  </si>
+  <si>
+    <t>Sebrina Davis</t>
+  </si>
+  <si>
+    <t>Sarah Brenner</t>
   </si>
 </sst>
 </file>
@@ -234,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +324,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D63804E-A8EC-45E0-B302-6D82E2A1CE8B}">
-  <dimension ref="B1:J61"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,17 +656,20 @@
     <col min="10" max="10" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -649,7 +734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -671,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -693,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -715,7 +800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -740,7 +825,7 @@
         <v>-216.04751440000001</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -765,7 +850,7 @@
         <v>16.260633899999998</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -790,7 +875,7 @@
         <v>-2.388645E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,7 +900,7 @@
         <v>-1.13732E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -840,7 +925,7 @@
         <v>7.0186299999999996E-6</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -865,7 +950,7 @@
         <v>-1.2909999999999999E-8</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -887,7 +972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
         <v>23</v>
       </c>
@@ -895,7 +980,7 @@
         <v>594.31747775582005</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
         <v>24</v>
       </c>
@@ -907,10 +992,10 @@
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="I17" t="s">
         <v>25</v>
@@ -1187,10 +1272,10 @@
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -1443,12 +1528,12 @@
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1479,12 +1564,12 @@
         <f>D50/(C50*2.2)</f>
         <v>6.88986013986014</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <f>((D50/2.2)*500) / ($J$8 + $J$9*C50 + $J$10*C50^2 + $J$11*C50^3 + $J$12*C50^4 + $J$13*C50^5)</f>
         <v>351.56531451167461</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
@@ -1498,12 +1583,12 @@
         <f t="shared" ref="E51:E61" si="6">D51/(C51*2.2)</f>
         <v>9.4391233766233764</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <f t="shared" ref="F51:F61" si="7">((D51/2.2)*500) / ($J$8 + $J$9*C51 + $J$10*C51^2 + $J$11*C51^3 + $J$12*C51^4 + $J$13*C51^5)</f>
         <v>481.20182114522038</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1517,12 +1602,12 @@
         <f t="shared" si="6"/>
         <v>10.396969696969698</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <f t="shared" si="7"/>
         <v>532.03845559492299</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1536,12 +1621,12 @@
         <f t="shared" si="6"/>
         <v>10.474074074074075</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <f t="shared" si="7"/>
         <v>545.10814451655699</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1555,12 +1640,12 @@
         <f t="shared" si="6"/>
         <v>11.203636363636363</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <f t="shared" si="7"/>
         <v>598.74513232260824</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
@@ -1574,12 +1659,12 @@
         <f t="shared" si="6"/>
         <v>9.930027548209365</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <f t="shared" si="7"/>
         <v>548.80569709809708</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1593,12 +1678,12 @@
         <f t="shared" si="6"/>
         <v>8.5176767676767664</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <f t="shared" si="7"/>
         <v>489.38709536411261</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>9</v>
       </c>
@@ -1612,12 +1697,12 @@
         <f t="shared" si="6"/>
         <v>8.8336363636363622</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <f t="shared" si="7"/>
         <v>537.60545561062975</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>9</v>
       </c>
@@ -1631,12 +1716,12 @@
         <f t="shared" si="6"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <f t="shared" si="7"/>
         <v>563.18800693236653</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
@@ -1650,12 +1735,12 @@
         <f t="shared" si="6"/>
         <v>7.844363636363636</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <f t="shared" si="7"/>
         <v>558.75878511383758</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
@@ -1669,12 +1754,12 @@
         <f t="shared" si="6"/>
         <v>5.8159090909090905</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <f t="shared" si="7"/>
         <v>454.99563611285095</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
@@ -1688,17 +1773,1010 @@
         <f t="shared" si="6"/>
         <v>7.4321212121212117</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <f t="shared" si="7"/>
         <v>616.82379781491534</v>
       </c>
     </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44</v>
+      </c>
+      <c r="D65" s="1">
+        <v>187.4</v>
+      </c>
+      <c r="E65" s="4">
+        <f>D65/(C65*2.2)</f>
+        <v>1.9359504132231404</v>
+      </c>
+      <c r="F65" s="4">
+        <f>((D65/2.2)*500) / ($J$15 + $J$16*C65 + $J$17*C65^2 + $J$18*C65^3 + $J$19*C65^4 + $J$20*C65^5)</f>
+        <v>119.94201818783097</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="2">
+        <v>48</v>
+      </c>
+      <c r="D66" s="1">
+        <v>315.3</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" ref="E66:E75" si="8">D66/(C66*2.2)</f>
+        <v>2.9857954545454546</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" ref="F66:F75" si="9">((D66/2.2)*500) / ($J$15 + $J$16*C66 + $J$17*C66^2 + $J$18*C66^3 + $J$19*C66^4 + $J$20*C66^5)</f>
+        <v>189.81352833754997</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="2">
+        <v>52</v>
+      </c>
+      <c r="D67" s="1">
+        <v>345</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="8"/>
+        <v>3.0157342657342654</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="9"/>
+        <v>195.4953460697283</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="2">
+        <v>56</v>
+      </c>
+      <c r="D68" s="1">
+        <v>377</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="8"/>
+        <v>3.0600649350649345</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="9"/>
+        <v>201.62732958488559</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="2">
+        <v>60</v>
+      </c>
+      <c r="D69" s="1">
+        <v>392.4</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="8"/>
+        <v>2.9727272727272727</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="9"/>
+        <v>198.85527721136046</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>413.4</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7838383838383836</v>
+      </c>
+      <c r="F70" s="4">
+        <f>((D70/2.2)*500) / ($J$15 + $J$16*C70 + $J$17*C70^2 + $J$18*C70^3 + $J$19*C70^4 + $J$20*C70^5)</f>
+        <v>191.78404281548936</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="2">
+        <v>75</v>
+      </c>
+      <c r="D71" s="1">
+        <v>453</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7454545454545456</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="9"/>
+        <v>195.74555326873454</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>440.9</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="8"/>
+        <v>2.4292011019283741</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="9"/>
+        <v>180.36203401468237</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="2">
+        <v>90</v>
+      </c>
+      <c r="D73" s="1">
+        <v>564.4</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="8"/>
+        <v>2.85050505050505</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="9"/>
+        <v>221.67176442227785</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="2">
+        <v>100</v>
+      </c>
+      <c r="D74" s="1">
+        <v>440.9</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="8"/>
+        <v>2.0040909090909089</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="9"/>
+        <v>166.85726561330216</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="2">
+        <v>110</v>
+      </c>
+      <c r="D75" s="1">
+        <v>608.5</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="8"/>
+        <v>2.5144628099173549</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="9"/>
+        <v>224.88703643914945</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E81" s="4">
+        <f>D81/(C81*2.2)</f>
+        <v>1.4235537190082643</v>
+      </c>
+      <c r="F81" s="4">
+        <f>((D81/2.2)*500) / ($J$15 + $J$16*C81 + $J$17*C81^2 + $J$18*C81^3 + $J$19*C81^4 + $J$20*C81^5)</f>
+        <v>88.19642532701765</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="2">
+        <v>48</v>
+      </c>
+      <c r="D82" s="2">
+        <v>198.4</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" ref="E82:E91" si="10">D82/(C82*2.2)</f>
+        <v>1.8787878787878787</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" ref="F82:F91" si="11">((D82/2.2)*500) / ($J$15 + $J$16*C82 + $J$17*C82^2 + $J$18*C82^3 + $J$19*C82^4 + $J$20*C82^5)</f>
+        <v>119.43864263295245</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="2">
+        <v>52</v>
+      </c>
+      <c r="D83" s="2">
+        <v>237</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="10"/>
+        <v>2.0716783216783217</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" si="11"/>
+        <v>134.29680295224813</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="2">
+        <v>56</v>
+      </c>
+      <c r="D84" s="2">
+        <v>256.8</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="10"/>
+        <v>2.0844155844155843</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" si="11"/>
+        <v>137.34190513898838</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="2">
+        <v>60</v>
+      </c>
+      <c r="D85" s="2">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="10"/>
+        <v>2.2795454545454543</v>
+      </c>
+      <c r="F85" s="4">
+        <f t="shared" si="11"/>
+        <v>152.48611853439948</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>317.5</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="10"/>
+        <v>2.138047138047138</v>
+      </c>
+      <c r="F86" s="4">
+        <f t="shared" si="11"/>
+        <v>147.29422736796778</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="2">
+        <v>75</v>
+      </c>
+      <c r="D87" s="2">
+        <v>286.60000000000002</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="10"/>
+        <v>1.7369696969696971</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" si="11"/>
+        <v>123.84255092013095</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>253.5</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="10"/>
+        <v>1.3966942148760328</v>
+      </c>
+      <c r="F88" s="4">
+        <f t="shared" si="11"/>
+        <v>103.70101071154907</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="2">
+        <v>90</v>
+      </c>
+      <c r="D89" s="2">
+        <v>302</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="10"/>
+        <v>1.5252525252525251</v>
+      </c>
+      <c r="F89" s="4">
+        <f t="shared" si="11"/>
+        <v>118.61246076457817</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="2">
+        <v>100</v>
+      </c>
+      <c r="D90" s="1">
+        <v>259</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="10"/>
+        <v>1.177272727272727</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" si="11"/>
+        <v>98.017763197653139</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="2">
+        <v>110</v>
+      </c>
+      <c r="D91" s="1">
+        <v>369.3</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="10"/>
+        <v>1.5260330578512395</v>
+      </c>
+      <c r="F91" s="4">
+        <f t="shared" si="11"/>
+        <v>136.48444134260953</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44</v>
+      </c>
+      <c r="D97" s="1">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="E97" s="4">
+        <f>D97/(C97*2.2)</f>
+        <v>2.8471074380165287</v>
+      </c>
+      <c r="F97" s="4">
+        <f>((D97/2.2)*500) / ($J$15 + $J$16*C97 + $J$17*C97^2 + $J$18*C97^3 + $J$19*C97^4 + $J$20*C97^5)</f>
+        <v>176.3928506540353</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="2">
+        <v>48</v>
+      </c>
+      <c r="D98" s="1">
+        <v>424.4</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" ref="E98:E107" si="12">D98/(C98*2.2)</f>
+        <v>4.0189393939393936</v>
+      </c>
+      <c r="F98" s="4">
+        <f t="shared" ref="F98:F107" si="13">((D98/2.2)*500) / ($J$15 + $J$16*C98 + $J$17*C98^2 + $J$18*C98^3 + $J$19*C98^4 + $J$20*C98^5)</f>
+        <v>255.4927415999245</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="2">
+        <v>52</v>
+      </c>
+      <c r="D99" s="1">
+        <v>418.9</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="12"/>
+        <v>3.6617132867132862</v>
+      </c>
+      <c r="F99" s="4">
+        <f t="shared" si="13"/>
+        <v>237.37101585104108</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="2">
+        <v>56</v>
+      </c>
+      <c r="D100" s="1">
+        <v>418.9</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="12"/>
+        <v>3.4001623376623371</v>
+      </c>
+      <c r="F100" s="4">
+        <f t="shared" si="13"/>
+        <v>224.0363086554604</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="2">
+        <v>60</v>
+      </c>
+      <c r="D101" s="1">
+        <v>468.5</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5492424242424243</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" si="13"/>
+        <v>237.42022776127007</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="D102" s="1">
+        <v>498.2</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="12"/>
+        <v>3.354882154882155</v>
+      </c>
+      <c r="F102" s="4">
+        <f t="shared" si="13"/>
+        <v>231.12435929046157</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="2">
+        <v>75</v>
+      </c>
+      <c r="D103" s="1">
+        <v>542.29999999999995</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="12"/>
+        <v>3.2866666666666662</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" si="13"/>
+        <v>234.33292171663294</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="D104" s="1">
+        <v>468.5</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="12"/>
+        <v>2.5812672176308538</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" si="13"/>
+        <v>191.65255825783331</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="2">
+        <v>90</v>
+      </c>
+      <c r="D105" s="1">
+        <v>573.20000000000005</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="12"/>
+        <v>2.8949494949494947</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="13"/>
+        <v>225.12802155713979</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="2">
+        <v>100</v>
+      </c>
+      <c r="D106" s="1">
+        <v>532.4</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="12"/>
+        <v>2.4199999999999995</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="13"/>
+        <v>201.48516265031091</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" s="2">
+        <v>110</v>
+      </c>
+      <c r="D107" s="1">
+        <v>573.20000000000005</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="12"/>
+        <v>2.368595041322314</v>
+      </c>
+      <c r="F107" s="4">
+        <f t="shared" si="13"/>
+        <v>211.84100129321362</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44</v>
+      </c>
+      <c r="D112" s="1">
+        <v>600.79999999999995</v>
+      </c>
+      <c r="E112" s="4">
+        <f>D112/(C112*2.2)</f>
+        <v>6.206611570247933</v>
+      </c>
+      <c r="F112" s="4">
+        <f>((D112/2.2)*500) / ($J$15 + $J$16*C112 + $J$17*C112^2 + $J$18*C112^3 + $J$19*C112^4 + $J$20*C112^5)</f>
+        <v>384.5312941688839</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="2">
+        <v>48</v>
+      </c>
+      <c r="D113" s="1">
+        <v>899.5</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" ref="E113:E122" si="14">D113/(C113*2.2)</f>
+        <v>8.5179924242424239</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" ref="F113:F122" si="15">((D113/2.2)*500) / ($J$15 + $J$16*C113 + $J$17*C113^2 + $J$18*C113^3 + $J$19*C113^4 + $J$20*C113^5)</f>
+        <v>541.50735407429795</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" s="2">
+        <v>52</v>
+      </c>
+      <c r="D114" s="1">
+        <v>948</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" si="14"/>
+        <v>8.2867132867132867</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" si="15"/>
+        <v>537.18721180899252</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="2">
+        <v>56</v>
+      </c>
+      <c r="D115" s="1">
+        <v>983.3</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="14"/>
+        <v>7.9813311688311677</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="15"/>
+        <v>525.88900047962329</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="2">
+        <v>60</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1069.2</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" si="14"/>
+        <v>8.1</v>
+      </c>
+      <c r="F116" s="4">
+        <f t="shared" si="15"/>
+        <v>541.8350213924225</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1135.4000000000001</v>
+      </c>
+      <c r="E117" s="4">
+        <f t="shared" si="14"/>
+        <v>7.645791245791246</v>
+      </c>
+      <c r="F117" s="4">
+        <f t="shared" si="15"/>
+        <v>526.73343544437989</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="2">
+        <v>75</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1210.3</v>
+      </c>
+      <c r="E118" s="4">
+        <f t="shared" si="14"/>
+        <v>7.335151515151515</v>
+      </c>
+      <c r="F118" s="4">
+        <f t="shared" si="15"/>
+        <v>522.98199364492143</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1069.2</v>
+      </c>
+      <c r="E119" s="4">
+        <f t="shared" si="14"/>
+        <v>5.8909090909090907</v>
+      </c>
+      <c r="F119" s="4">
+        <f t="shared" si="15"/>
+        <v>437.38509133249812</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="2">
+        <v>90</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1424.2</v>
+      </c>
+      <c r="E120" s="4">
+        <f t="shared" si="14"/>
+        <v>7.1929292929292918</v>
+      </c>
+      <c r="F120" s="4">
+        <f t="shared" si="15"/>
+        <v>559.36379675798753</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" s="2">
+        <v>100</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1232.4000000000001</v>
+      </c>
+      <c r="E121" s="4">
+        <f t="shared" si="14"/>
+        <v>5.6018181818181816</v>
+      </c>
+      <c r="F121" s="4">
+        <f t="shared" si="15"/>
+        <v>466.3980361574815</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="2">
+        <v>110</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1480.4</v>
+      </c>
+      <c r="E122" s="4">
+        <f t="shared" si="14"/>
+        <v>6.1173553719008265</v>
+      </c>
+      <c r="F122" s="4">
+        <f t="shared" si="15"/>
+        <v>547.12040878310086</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E110:F110"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Math353Data.xlsx
+++ b/Math353Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\public_html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7735ABDB-9723-4048-B763-47C3810EAC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D5B89-EF70-48D6-A95F-00F86DB69B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{2BB882B7-595F-49B1-A03D-4CFCB859DDE8}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Math353Data.xlsx
+++ b/Math353Data.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\public_html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D5B89-EF70-48D6-A95F-00F86DB69B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DC0DBC-03C9-44BA-B587-642495555565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{2BB882B7-595F-49B1-A03D-4CFCB859DDE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="786" firstSheet="4" activeTab="10" xr2:uid="{2BB882B7-595F-49B1-A03D-4CFCB859DDE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Men's Records - Squat" sheetId="3" r:id="rId2"/>
+    <sheet name="Men's Records - Bench" sheetId="2" r:id="rId3"/>
+    <sheet name="Men's Records - Deadlift" sheetId="4" r:id="rId4"/>
+    <sheet name="Men's Records - Total" sheetId="8" r:id="rId5"/>
+    <sheet name="Women's Records - Squat" sheetId="5" r:id="rId6"/>
+    <sheet name="Women's Records - Bench" sheetId="6" r:id="rId7"/>
+    <sheet name="Women's Records - Deadlift" sheetId="7" r:id="rId8"/>
+    <sheet name="Women's Records - Total" sheetId="9" r:id="rId9"/>
+    <sheet name="Raw Nationals Men's Totals" sheetId="10" r:id="rId10"/>
+    <sheet name="Raw Nationals Women's Totals" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -278,6 +288,105 @@
   </si>
   <si>
     <t>Sarah Brenner</t>
+  </si>
+  <si>
+    <t>84+</t>
+  </si>
+  <si>
+    <t>Tiffany Leung</t>
+  </si>
+  <si>
+    <t>Andrea Riley</t>
+  </si>
+  <si>
+    <t>Tina Daneshmand</t>
+  </si>
+  <si>
+    <t>Brittany Suplicki</t>
+  </si>
+  <si>
+    <t>Allison Weinberg</t>
+  </si>
+  <si>
+    <t>Jennifer Millican</t>
+  </si>
+  <si>
+    <t>Kristen Dunsmore</t>
+  </si>
+  <si>
+    <t>Dayna Mcneal</t>
+  </si>
+  <si>
+    <t>Maria Dailey</t>
+  </si>
+  <si>
+    <t>Kennia Webb</t>
+  </si>
+  <si>
+    <t>Margaret Hampton</t>
+  </si>
+  <si>
+    <t>Amanda Martin</t>
+  </si>
+  <si>
+    <t>Alexis Jones</t>
+  </si>
+  <si>
+    <t>Chandler Babb</t>
+  </si>
+  <si>
+    <t>Claire Zai</t>
+  </si>
+  <si>
+    <t>120+</t>
+  </si>
+  <si>
+    <t>Kurt Navarro</t>
+  </si>
+  <si>
+    <t>Morgan Aquino Garcia</t>
+  </si>
+  <si>
+    <t>Austin Perkins</t>
+  </si>
+  <si>
+    <t>Michael Seay</t>
+  </si>
+  <si>
+    <t>Russel Orhii</t>
+  </si>
+  <si>
+    <t>Delaney Wallace</t>
+  </si>
+  <si>
+    <t>Gavin Adin</t>
+  </si>
+  <si>
+    <t>Cameron Smith</t>
+  </si>
+  <si>
+    <t>Bryce Lewis</t>
+  </si>
+  <si>
+    <t>Jared Martin</t>
+  </si>
+  <si>
+    <t>Blake Atwell</t>
+  </si>
+  <si>
+    <t>Derek Dowrey</t>
+  </si>
+  <si>
+    <t>Matthew Cronin</t>
+  </si>
+  <si>
+    <t>WeightClass</t>
+  </si>
+  <si>
+    <t>WeightLifted</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -313,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,6 +433,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D63804E-A8EC-45E0-B302-6D82E2A1CE8B}">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,10 +778,10 @@
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -992,10 +1107,10 @@
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="5"/>
       <c r="I17" t="s">
         <v>25</v>
@@ -1272,10 +1387,10 @@
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -1528,10 +1643,10 @@
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="6"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -1787,10 +1902,10 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
@@ -2038,10 +2153,10 @@
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="6"/>
+      <c r="F79" s="8"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
@@ -2287,10 +2402,10 @@
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="6"/>
+      <c r="F95" s="8"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
@@ -2532,10 +2647,10 @@
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="6"/>
+      <c r="F110" s="8"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
@@ -2769,15 +2884,3171 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E95:F95"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E95:F95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED56004-F0AD-4E6C-8EC3-1269AC231886}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>57.24</v>
+      </c>
+      <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>1277.5999999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3/(C3*2.2)</f>
+        <v>10.14547995680071</v>
+      </c>
+      <c r="G3" s="4">
+        <f>((E3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
+        <v>517.58117164499947</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>58.68</v>
+      </c>
+      <c r="D4">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>1235.7</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F26" si="0">E4/(C4*2.2)</f>
+        <v>9.571946458449526</v>
+      </c>
+      <c r="G4" s="4">
+        <f>((E4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
+        <v>488.98445103828283</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>58.34</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>1212.5</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.446972294075481</v>
+      </c>
+      <c r="G5" s="4">
+        <f>((E5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
+        <v>482.42200002351609</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="D6">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>1548.7</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>10.753964947365498</v>
+      </c>
+      <c r="G6" s="4">
+        <f>((E6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
+        <v>556.50523595923596</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>65.53</v>
+      </c>
+      <c r="D7">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>1521.2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>10.551725094682517</v>
+      </c>
+      <c r="G7" s="4">
+        <f>((E7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
+        <v>546.13921707324403</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="D8">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>1514.6</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>10.56235878267176</v>
+      </c>
+      <c r="G8" s="4">
+        <f>((E8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
+        <v>546.19594864921999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>73.63</v>
+      </c>
+      <c r="D9">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>1848.6</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>11.412097341745582</v>
+      </c>
+      <c r="G9" s="4">
+        <f>((E9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
+        <v>606.58043026351049</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>73.44</v>
+      </c>
+      <c r="D10">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>1697.6</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>10.507031095266388</v>
+      </c>
+      <c r="G10" s="4">
+        <f>((E10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
+        <v>558.06395744493079</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>73.98</v>
+      </c>
+      <c r="D11">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>1625.9</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9898006832313389</v>
+      </c>
+      <c r="G11" s="4">
+        <f>((E11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
+        <v>531.7074146203538</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12">
+        <v>82.54</v>
+      </c>
+      <c r="D12">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>1858.5</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>10.234707139238274</v>
+      </c>
+      <c r="G12" s="4">
+        <f>((E12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
+        <v>565.75457787447476</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>82.94</v>
+      </c>
+      <c r="D13">
+        <v>83</v>
+      </c>
+      <c r="E13">
+        <v>1813.3</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9376329000153447</v>
+      </c>
+      <c r="G13" s="4">
+        <f>((E13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
+        <v>550.40721052528431</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>82.22</v>
+      </c>
+      <c r="D14">
+        <v>83</v>
+      </c>
+      <c r="E14">
+        <v>1781.3</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>9.847747727825567</v>
+      </c>
+      <c r="G14" s="4">
+        <f>((E14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
+        <v>543.51982306513685</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>91.88</v>
+      </c>
+      <c r="D15">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>1941.2</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6034353108798047</v>
+      </c>
+      <c r="G15" s="4">
+        <f>((E15/2.2)*500) / (Data!$J$8 + Data!$J$9*C15 + Data!$J$10*C15^2 + Data!$J$11*C15^3 + Data!$J$12*C15^4 + Data!$J$13*C15^5)</f>
+        <v>557.52940637316362</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>92.55</v>
+      </c>
+      <c r="D16">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>1940.1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5285103875055235</v>
+      </c>
+      <c r="G16" s="4">
+        <f>((E16/2.2)*500) / (Data!$J$8 + Data!$J$9*C16 + Data!$J$10*C16^2 + Data!$J$11*C16^3 + Data!$J$12*C16^4 + Data!$J$13*C16^5)</f>
+        <v>555.26082412241828</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>92.46</v>
+      </c>
+      <c r="D17">
+        <v>93</v>
+      </c>
+      <c r="E17">
+        <v>1879.4</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2393762413230291</v>
+      </c>
+      <c r="G17" s="4">
+        <f>((E17/2.2)*500) / (Data!$J$8 + Data!$J$9*C17 + Data!$J$10*C17^2 + Data!$J$11*C17^3 + Data!$J$12*C17^4 + Data!$J$13*C17^5)</f>
+        <v>538.13954566464565</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>100.42</v>
+      </c>
+      <c r="D18">
+        <v>105</v>
+      </c>
+      <c r="E18">
+        <v>2079</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4104760007966526</v>
+      </c>
+      <c r="G18" s="4">
+        <f>((E18/2.2)*500) / (Data!$J$8 + Data!$J$9*C18 + Data!$J$10*C18^2 + Data!$J$11*C18^3 + Data!$J$12*C18^4 + Data!$J$13*C18^5)</f>
+        <v>574.15943948826293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>104.7</v>
+      </c>
+      <c r="D19">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>2044.8</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8773117999479023</v>
+      </c>
+      <c r="G19" s="4">
+        <f>((E19/2.2)*500) / (Data!$J$8 + Data!$J$9*C19 + Data!$J$10*C19^2 + Data!$J$11*C19^3 + Data!$J$12*C19^4 + Data!$J$13*C19^5)</f>
+        <v>555.95890672853557</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>104.42</v>
+      </c>
+      <c r="D20">
+        <v>105</v>
+      </c>
+      <c r="E20">
+        <v>1940.1</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>8.4453518134805226</v>
+      </c>
+      <c r="G20" s="4">
+        <f>((E20/2.2)*500) / (Data!$J$8 + Data!$J$9*C20 + Data!$J$10*C20^2 + Data!$J$11*C20^3 + Data!$J$12*C20^4 + Data!$J$13*C20^5)</f>
+        <v>527.9937581536866</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>119.52</v>
+      </c>
+      <c r="D21">
+        <v>120</v>
+      </c>
+      <c r="E21">
+        <v>2039.3</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7556437872702926</v>
+      </c>
+      <c r="G21" s="4">
+        <f>((E21/2.2)*500) / (Data!$J$8 + Data!$J$9*C21 + Data!$J$10*C21^2 + Data!$J$11*C21^3 + Data!$J$12*C21^4 + Data!$J$13*C21^5)</f>
+        <v>533.42549036430205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22">
+        <v>119.57</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>1989.7</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5638462064823182</v>
+      </c>
+      <c r="G22" s="4">
+        <f>((E22/2.2)*500) / (Data!$J$8 + Data!$J$9*C22 + Data!$J$10*C22^2 + Data!$J$11*C22^3 + Data!$J$12*C22^4 + Data!$J$13*C22^5)</f>
+        <v>520.40029867511259</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23">
+        <v>117.5</v>
+      </c>
+      <c r="D23">
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <v>1984.2</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6758220502901358</v>
+      </c>
+      <c r="G23" s="4">
+        <f>((E23/2.2)*500) / (Data!$J$8 + Data!$J$9*C23 + Data!$J$10*C23^2 + Data!$J$11*C23^3 + Data!$J$12*C23^4 + Data!$J$13*C23^5)</f>
+        <v>521.15814415884847</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>167.76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24">
+        <v>2248.6999999999998</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>6.09284909177613</v>
+      </c>
+      <c r="G24" s="4">
+        <f>((E24/2.2)*500) / (Data!$J$8 + Data!$J$9*C24 + Data!$J$10*C24^2 + Data!$J$11*C24^3 + Data!$J$12*C24^4 + Data!$J$13*C24^5)</f>
+        <v>556.32781724688664</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <v>182.28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25">
+        <v>2061.3000000000002</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1401939074750134</v>
+      </c>
+      <c r="G25" s="4">
+        <f>((E25/2.2)*500) / (Data!$J$8 + Data!$J$9*C25 + Data!$J$10*C25^2 + Data!$J$11*C25^3 + Data!$J$12*C25^4 + Data!$J$13*C25^5)</f>
+        <v>503.24480664067454</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26">
+        <v>131.91999999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26">
+        <v>1901.5</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5518358233640228</v>
+      </c>
+      <c r="G26" s="4">
+        <f>((E26/2.2)*500) / (Data!$J$8 + Data!$J$9*C26 + Data!$J$10*C26^2 + Data!$J$11*C26^3 + Data!$J$12*C26^4 + Data!$J$13*C26^5)</f>
+        <v>487.59514034964286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360F033-907C-4E12-8507-1910F4CF6D65}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>45.12</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>899.5</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3/(C3*2.2)</f>
+        <v>9.0616940683430052</v>
+      </c>
+      <c r="G3" s="4">
+        <f>((E3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 + Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
+        <v>565.96543345588339</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>46.39</v>
+      </c>
+      <c r="D4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>799.2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F26" si="0">E4/(C4*2.2)</f>
+        <v>7.8308412863273826</v>
+      </c>
+      <c r="G4" s="4">
+        <f>((E4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 + Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
+        <v>493.16154258821143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>46.91</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>744.1</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2101315865971589</v>
+      </c>
+      <c r="G5" s="4">
+        <f>((E5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 + Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
+        <v>455.50958176056542</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>51.7</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>931.5</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1897309653595922</v>
+      </c>
+      <c r="G6" s="4">
+        <f>((E6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 + Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
+        <v>530.19949870245239</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>51.23</v>
+      </c>
+      <c r="D7">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>909.4</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0687807215232557</v>
+      </c>
+      <c r="G7" s="4">
+        <f>((E7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 + Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
+        <v>521.26946690028467</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>50.87</v>
+      </c>
+      <c r="D8">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>894</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>7.9882767124756509</v>
+      </c>
+      <c r="G8" s="4">
+        <f>((E8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 + Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
+        <v>515.2188440751072</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>56.62</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>1019.6</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1853505025529039</v>
+      </c>
+      <c r="G9" s="4">
+        <f>((E9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 + Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
+        <v>540.61631862111051</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>56.5</v>
+      </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>1016.3</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1761866452131926</v>
+      </c>
+      <c r="G10" s="4">
+        <f>((E10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 + Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
+        <v>539.76348442996573</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>56.94</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>992.1</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>7.9198199061212762</v>
+      </c>
+      <c r="G11" s="4">
+        <f>((E11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 + Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
+        <v>523.71698589349103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>62.54</v>
+      </c>
+      <c r="D12">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>1107.8</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0515742651975444</v>
+      </c>
+      <c r="G12" s="4">
+        <f>((E12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 + Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
+        <v>543.80112009077368</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>62.51</v>
+      </c>
+      <c r="D13">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>1069.2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>7.774756039033754</v>
+      </c>
+      <c r="G13" s="4">
+        <f>((E13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 + Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
+        <v>525.04450443865414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>62.29</v>
+      </c>
+      <c r="D14">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>1047.2</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6416760314657246</v>
+      </c>
+      <c r="G14" s="4">
+        <f>((E14/2.2)*500) / (Data!$J$15 + Data!$J$16*C14 + Data!$J$17*C14^2 + Data!$J$18*C14^3 + Data!$J$19*C14^4 + Data!$J$20*C14^5)</f>
+        <v>515.6229620936557</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>68.22</v>
+      </c>
+      <c r="D15">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>1168.4000000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7849737480344343</v>
+      </c>
+      <c r="G15" s="4">
+        <f>((E15/2.2)*500) / (Data!$J$15 + Data!$J$16*C15 + Data!$J$17*C15^2 + Data!$J$18*C15^3 + Data!$J$19*C15^4 + Data!$J$20*C15^5)</f>
+        <v>537.95706142126323</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16">
+        <v>68.28</v>
+      </c>
+      <c r="D16">
+        <v>69</v>
+      </c>
+      <c r="E16">
+        <v>1102.3</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>7.338099802950417</v>
+      </c>
+      <c r="G16" s="4">
+        <f>((E16/2.2)*500) / (Data!$J$15 + Data!$J$16*C16 + Data!$J$17*C16^2 + Data!$J$18*C16^3 + Data!$J$19*C16^4 + Data!$J$20*C16^5)</f>
+        <v>507.20695603862288</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>68.62</v>
+      </c>
+      <c r="D17">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>1102.3</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3017408123791085</v>
+      </c>
+      <c r="G17" s="4">
+        <f>((E17/2.2)*500) / (Data!$J$15 + Data!$J$16*C17 + Data!$J$17*C17^2 + Data!$J$18*C17^3 + Data!$J$19*C17^4 + Data!$J$20*C17^5)</f>
+        <v>505.42947201555194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D18">
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>1207</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3543748476724344</v>
+      </c>
+      <c r="G18" s="4">
+        <f>((E18/2.2)*500) / (Data!$J$15 + Data!$J$16*C18 + Data!$J$17*C18^2 + Data!$J$18*C18^3 + Data!$J$19*C18^4 + Data!$J$20*C18^5)</f>
+        <v>523.31254393526638</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>73.75</v>
+      </c>
+      <c r="D19">
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>1162.9000000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1673343605547002</v>
+      </c>
+      <c r="G19" s="4">
+        <f>((E19/2.2)*500) / (Data!$J$15 + Data!$J$16*C19 + Data!$J$17*C19^2 + Data!$J$18*C19^3 + Data!$J$19*C19^4 + Data!$J$20*C19^5)</f>
+        <v>507.88651726460159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>73.08</v>
+      </c>
+      <c r="D20">
+        <v>76</v>
+      </c>
+      <c r="E20">
+        <v>1135.4000000000001</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0619993033786139</v>
+      </c>
+      <c r="G20" s="4">
+        <f>((E20/2.2)*500) / (Data!$J$15 + Data!$J$16*C20 + Data!$J$17*C20^2 + Data!$J$18*C20^3 + Data!$J$19*C20^4 + Data!$J$20*C20^5)</f>
+        <v>498.81280674233562</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>83.46</v>
+      </c>
+      <c r="D21">
+        <v>84</v>
+      </c>
+      <c r="E21">
+        <v>1377.9</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5044114763740941</v>
+      </c>
+      <c r="G21" s="4">
+        <f>((E21/2.2)*500) / (Data!$J$15 + Data!$J$16*C21 + Data!$J$17*C21^2 + Data!$J$18*C21^3 + Data!$J$19*C21^4 + Data!$J$20*C21^5)</f>
+        <v>560.32742982905199</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22">
+        <v>81.319999999999993</v>
+      </c>
+      <c r="D22">
+        <v>84</v>
+      </c>
+      <c r="E22">
+        <v>1140.9000000000001</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3771631713097534</v>
+      </c>
+      <c r="G22" s="4">
+        <f>((E22/2.2)*500) / (Data!$J$15 + Data!$J$16*C22 + Data!$J$17*C22^2 + Data!$J$18*C22^3 + Data!$J$19*C22^4 + Data!$J$20*C22^5)</f>
+        <v>470.28658709591622</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>83.96</v>
+      </c>
+      <c r="D23">
+        <v>84</v>
+      </c>
+      <c r="E23">
+        <v>1140.9000000000001</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1766425570618049</v>
+      </c>
+      <c r="G23" s="4">
+        <f>((E23/2.2)*500) / (Data!$J$15 + Data!$J$16*C23 + Data!$J$17*C23^2 + Data!$J$18*C23^3 + Data!$J$19*C23^4 + Data!$J$20*C23^5)</f>
+        <v>462.55835632247096</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24">
+        <v>141.28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24">
+        <v>1479.3</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7594074951096461</v>
+      </c>
+      <c r="G24" s="4">
+        <f>((E24/2.2)*500) / (Data!$J$15 + Data!$J$16*C24 + Data!$J$17*C24^2 + Data!$J$18*C24^3 + Data!$J$19*C24^4 + Data!$J$20*C24^5)</f>
+        <v>522.02820753064543</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25">
+        <v>145.24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>1406.5</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4018051626148562</v>
+      </c>
+      <c r="G25" s="4">
+        <f>((E25/2.2)*500) / (Data!$J$15 + Data!$J$16*C25 + Data!$J$17*C25^2 + Data!$J$18*C25^3 + Data!$J$19*C25^4 + Data!$J$20*C25^5)</f>
+        <v>494.03528654470222</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26">
+        <v>1322.8</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1126725531650292</v>
+      </c>
+      <c r="G26" s="4">
+        <f>((E26/2.2)*500) / (Data!$J$15 + Data!$J$16*C26 + Data!$J$17*C26^2 + Data!$J$18*C26^3 + Data!$J$19*C26^4 + Data!$J$20*C26^5)</f>
+        <v>464.17122441224967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8E5A40-B044-4545-B236-178F265A3E95}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6">
+        <v>363.8</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3/(C3*2.2)</f>
+        <v>3.18006993006993</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((D3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
+        <v>162.26777647722309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6">
+        <v>385.8</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E14" si="0">D4/(C4*2.2)</f>
+        <v>3.1314935064935061</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((D4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
+        <v>159.6419834876825</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6">
+        <v>535.70000000000005</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0583333333333336</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((D5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
+        <v>207.67487661192092</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>583.1</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9265993265993266</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((D6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
+        <v>204.35422339437085</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6">
+        <v>668</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0484848484848488</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((D7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
+        <v>216.35927101130713</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>672.4</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7046831955922856</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((D8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
+        <v>204.74779488917525</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>90</v>
+      </c>
+      <c r="D9" s="6">
+        <v>622.79999999999995</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1454545454545446</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((D9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
+        <v>180.72355943834526</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>744.1</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3822727272727269</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((D10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
+        <v>205.84142200260862</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>110</v>
+      </c>
+      <c r="D11" s="6">
+        <v>815.7</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3706611570247933</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((D11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
+        <v>218.19723437576295</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>125</v>
+      </c>
+      <c r="D12" s="6">
+        <v>853.2</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1025454545454547</v>
+      </c>
+      <c r="F12" s="4">
+        <f>((D12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
+        <v>220.99619667120635</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>140</v>
+      </c>
+      <c r="D13" s="6">
+        <v>705.5</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2905844155844157</v>
+      </c>
+      <c r="F13" s="4">
+        <f>((D13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
+        <v>179.19914100240959</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1080.3</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2736363636363635</v>
+      </c>
+      <c r="F14" s="4">
+        <f>((D14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
+        <v>271.69320263371651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB22E42-A8CB-414A-9166-81C7E5F1C97D}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6">
+        <v>220.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3/(C3*2.2)</f>
+        <v>1.9274475524475523</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((D3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
+        <v>98.350865072093697</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6">
+        <v>253.5</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E14" si="0">D4/(C4*2.2)</f>
+        <v>2.0576298701298699</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((D4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
+        <v>104.8969487146903</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6">
+        <v>335.1</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.538636363636364</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((D5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
+        <v>129.90825303836979</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>392.4</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6424242424242421</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((D6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
+        <v>137.52117520142531</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6">
+        <v>438.7</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6587878787878787</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((D7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
+        <v>142.09103621655751</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>440.9</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4292011019283741</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((D8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
+        <v>134.25535807054931</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6">
+        <v>90</v>
+      </c>
+      <c r="D9" s="6">
+        <v>474</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3939393939393936</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((D9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
+        <v>137.54490554556145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>524.70000000000005</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((D10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
+        <v>145.14849364973625</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6">
+        <v>110</v>
+      </c>
+      <c r="D11" s="6">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4140495867768594</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((D11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
+        <v>156.27169832330605</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6">
+        <v>125</v>
+      </c>
+      <c r="D12" s="6">
+        <v>501.6</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <f>((D12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
+        <v>129.92462757885269</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6">
+        <v>140</v>
+      </c>
+      <c r="D13" s="6">
+        <v>463</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5032467532467533</v>
+      </c>
+      <c r="F13" s="4">
+        <f>((D13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
+        <v>117.60340508024898</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6">
+        <v>619.5</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8772727272727272</v>
+      </c>
+      <c r="F14" s="4">
+        <f>((D14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
+        <v>155.80296124371691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8C4994-989E-4DB6-ABDE-D8C29797DC9B}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7">
+        <v>253.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3/(C3*2.2)</f>
+        <v>2.2159090909090908</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((D3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
+        <v>113.07004215771317</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7">
+        <v>512.6</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E14" si="0">D4/(C4*2.2)</f>
+        <v>4.1607142857142856</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((D4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
+        <v>212.11114757850197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7">
+        <v>606.29999999999995</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5931818181818178</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((D5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
+        <v>235.04438620460638</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>655.9</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4168350168350168</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((D6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
+        <v>229.86783591899814</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>75</v>
+      </c>
+      <c r="D7" s="7">
+        <v>750.7</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5496969696969698</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((D7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
+        <v>243.14506698830581</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7">
+        <v>82.5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>771.6</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2512396694214871</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((D8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
+        <v>234.95448919763177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7">
+        <v>90</v>
+      </c>
+      <c r="D9" s="7">
+        <v>406.6</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0535353535353535</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((D9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
+        <v>117.98683247853435</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <v>844.4</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8381818181818175</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((D10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
+        <v>233.58755105362548</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>110</v>
+      </c>
+      <c r="D11" s="7">
+        <v>837.8</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4619834710743795</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((D11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
+        <v>224.10891621921564</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7">
+        <v>843.3</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0665454545454542</v>
+      </c>
+      <c r="F12" s="4">
+        <f>((D12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
+        <v>218.43189481109738</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="7">
+        <v>140</v>
+      </c>
+      <c r="D13" s="7">
+        <v>705.5</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2905844155844157</v>
+      </c>
+      <c r="F13" s="4">
+        <f>((D13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
+        <v>179.19914100240959</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6">
+        <v>881.8</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6721212121212119</v>
+      </c>
+      <c r="F14" s="4">
+        <f>((D14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
+        <v>221.77086557660948</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B562DC9-99AB-4A23-98BC-E911B85042EB}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6">
+        <v>788.2</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3/(C3*2.2)</f>
+        <v>6.88986013986014</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((D3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
+        <v>351.56531451167461</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1162.9000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E14" si="0">D4/(C4*2.2)</f>
+        <v>9.4391233766233764</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((D4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
+        <v>481.20182114522038</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1372.4</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>10.396969696969698</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((D5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
+        <v>532.03845559492299</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1555.4</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>10.474074074074075</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((D6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
+        <v>545.10814451655699</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1848.6</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>11.203636363636363</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((D7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
+        <v>598.74513232260824</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1802.3</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>9.930027548209365</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((D8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
+        <v>548.80569709809708</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6">
+        <v>90</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1686.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5176767676767664</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((D9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
+        <v>489.38709536411261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1943.4</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8336363636363622</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((D10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
+        <v>537.60545561062975</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>110</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2105.4</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((D11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
+        <v>563.18800693236653</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>125</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2157.1999999999998</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>7.844363636363636</v>
+      </c>
+      <c r="F12" s="4">
+        <f>((D12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
+        <v>558.75878511383758</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6">
+        <v>140</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1791.3</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8159090909090905</v>
+      </c>
+      <c r="F13" s="4">
+        <f>((D13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
+        <v>454.99563611285095</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2452.6</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4321212121212117</v>
+      </c>
+      <c r="F14" s="4">
+        <f>((D14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
+        <v>616.82379781491534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725CA7E6-274F-44F9-9097-F9A973F00E58}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6">
+        <v>187.4</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3/(C3*2.2)</f>
+        <v>1.9359504132231404</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((D3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 +Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
+        <v>119.94201818783097</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6">
+        <v>315.3</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E13" si="0">D4/(C4*2.2)</f>
+        <v>2.9857954545454546</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((D4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 +Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
+        <v>189.81352833754997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6">
+        <v>345</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0157342657342654</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((D5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 +Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
+        <v>195.4953460697283</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6">
+        <v>377</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0600649350649345</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((D6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 +Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
+        <v>201.62732958488559</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6">
+        <v>392.4</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9727272727272727</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((D7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 +Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
+        <v>198.85527721136046</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>413.4</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7838383838383836</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((D8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 +Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
+        <v>191.78404281548936</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="6">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>453</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7454545454545456</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((D9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 +Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
+        <v>195.74555326873454</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>440.9</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4292011019283741</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((D10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 +Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
+        <v>180.36203401468237</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6">
+        <v>564.4</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.85050505050505</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((D11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 +Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
+        <v>221.67176442227785</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>440.9</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0040909090909089</v>
+      </c>
+      <c r="F12" s="4">
+        <f>((D12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 +Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
+        <v>166.85726561330216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6">
+        <v>110</v>
+      </c>
+      <c r="D13" s="6">
+        <v>608.5</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5144628099173549</v>
+      </c>
+      <c r="F13" s="4">
+        <f>((D13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 +Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
+        <v>224.88703643914945</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18C3D7B-83D2-4907-84B4-9FEDFAAB16BD}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3/(C3*2.2)</f>
+        <v>1.4235537190082643</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((D3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 + Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
+        <v>88.19642532701765</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="6">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6">
+        <v>198.4</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E13" si="0">D4/(C4*2.2)</f>
+        <v>1.8787878787878787</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((D4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 + Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
+        <v>119.43864263295245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="6">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6">
+        <v>237</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0716783216783217</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((D5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 + Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
+        <v>134.29680295224813</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6">
+        <v>256.8</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0844155844155843</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((D6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 + Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
+        <v>137.34190513898838</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2795454545454543</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((D7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 + Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
+        <v>152.48611853439948</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>317.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.138047138047138</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((D8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 + Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
+        <v>147.29422736796778</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="6">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>286.60000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7369696969696971</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((D9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 + Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
+        <v>123.84255092013095</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>253.5</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3966942148760328</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((D10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 + Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
+        <v>103.70101071154907</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="6">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6">
+        <v>302</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5252525252525251</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((D11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 + Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
+        <v>118.61246076457817</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>259</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.177272727272727</v>
+      </c>
+      <c r="F12" s="4">
+        <f>((D12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 + Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
+        <v>98.017763197653139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="6">
+        <v>110</v>
+      </c>
+      <c r="D13" s="6">
+        <v>369.3</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5260330578512395</v>
+      </c>
+      <c r="F13" s="4">
+        <f>((D13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 + Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
+        <v>136.48444134260953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D76710-6324-4F05-9B43-36766291B1DB}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3/(C3*2.2)</f>
+        <v>2.8471074380165287</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((D3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 +Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
+        <v>176.3928506540353</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6">
+        <v>424.4</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E13" si="0">D4/(C4*2.2)</f>
+        <v>4.0189393939393936</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((D4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 +Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
+        <v>255.4927415999245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6">
+        <v>418.9</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6617132867132862</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((D5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 +Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
+        <v>237.37101585104108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="6">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6">
+        <v>418.9</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4001623376623371</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((D6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 +Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
+        <v>224.0363086554604</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="6">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6">
+        <v>468.5</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5492424242424243</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((D7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 +Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
+        <v>237.42022776127007</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>498.2</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.354882154882155</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((D8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 +Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
+        <v>231.12435929046157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="6">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>542.29999999999995</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2866666666666662</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((D9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 +Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
+        <v>234.33292171663294</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>468.5</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5812672176308538</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((D10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 +Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
+        <v>191.65255825783331</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6">
+        <v>573.20000000000005</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8949494949494947</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((D11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 +Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
+        <v>225.12802155713979</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>532.4</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4199999999999995</v>
+      </c>
+      <c r="F12" s="4">
+        <f>((D12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 +Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
+        <v>201.48516265031091</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="6">
+        <v>110</v>
+      </c>
+      <c r="D13" s="6">
+        <v>573.20000000000005</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.368595041322314</v>
+      </c>
+      <c r="F13" s="4">
+        <f>((D13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 +Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
+        <v>211.84100129321362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045BE198-35E4-4C95-91AB-69F293A738FE}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6">
+        <v>600.79999999999995</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3/(C3*2.2)</f>
+        <v>6.206611570247933</v>
+      </c>
+      <c r="F3" s="4">
+        <f>((D3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 + Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
+        <v>384.5312941688839</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6">
+        <v>899.5</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E13" si="0">D4/(C4*2.2)</f>
+        <v>8.5179924242424239</v>
+      </c>
+      <c r="F4" s="4">
+        <f>((D4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 + Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
+        <v>541.50735407429795</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6">
+        <v>948</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2867132867132867</v>
+      </c>
+      <c r="F5" s="4">
+        <f>((D5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 + Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
+        <v>537.18721180899252</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6">
+        <v>983.3</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>7.9813311688311677</v>
+      </c>
+      <c r="F6" s="4">
+        <f>((D6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 + Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
+        <v>525.88900047962329</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="6">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1069.2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="F7" s="4">
+        <f>((D7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 + Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
+        <v>541.8350213924225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1135.4000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>7.645791245791246</v>
+      </c>
+      <c r="F8" s="4">
+        <f>((D8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 + Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
+        <v>526.73343544437989</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="6">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1210.3</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>7.335151515151515</v>
+      </c>
+      <c r="F9" s="4">
+        <f>((D9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 + Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
+        <v>522.98199364492143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1069.2</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8909090909090907</v>
+      </c>
+      <c r="F10" s="4">
+        <f>((D10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 + Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
+        <v>437.38509133249812</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1424.2</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1929292929292918</v>
+      </c>
+      <c r="F11" s="4">
+        <f>((D11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 + Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
+        <v>559.36379675798753</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1232.4000000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6018181818181816</v>
+      </c>
+      <c r="F12" s="4">
+        <f>((D12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 + Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
+        <v>466.3980361574815</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6">
+        <v>110</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1480.4</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1173553719008265</v>
+      </c>
+      <c r="F13" s="4">
+        <f>((D13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 + Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
+        <v>547.12040878310086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Math353Data.xlsx
+++ b/Math353Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickymiranda/Documents/Gettysburg College 2017-2022/Senior Year 2022/Math 353/StatsProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40149D17-5F65-F047-ABE0-8F138CD0A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADE4C4B-316E-0440-A16F-1AE42442C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" tabRatio="786" activeTab="2" xr2:uid="{2BB882B7-595F-49B1-A03D-4CFCB859DDE8}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16460" tabRatio="786" xr2:uid="{2BB882B7-595F-49B1-A03D-4CFCB859DDE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D63804E-A8EC-45E0-B302-6D82E2A1CE8B}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3414,237 +3414,237 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D76710-6324-4F05-9B43-36766291B1DB}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/(C2*2.2)</f>
+        <v>2.8471074380165287</v>
+      </c>
+      <c r="F2" s="4">
+        <f>((D2/2.2)*500) / (Data!$J$15 + Data!$J$16*C2 + Data!$J$17*C2^2 +Data!$J$18*C2^3 + Data!$J$19*C2^4 + Data!$J$20*C2^5)</f>
+        <v>176.3928506540353</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6">
-        <v>275.60000000000002</v>
+        <v>424.4</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/(C3*2.2)</f>
-        <v>2.8471074380165287</v>
+        <f t="shared" ref="E3:E12" si="0">D3/(C3*2.2)</f>
+        <v>4.0189393939393936</v>
       </c>
       <c r="F3" s="4">
         <f>((D3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 +Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
-        <v>176.3928506540353</v>
+        <v>255.4927415999245</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C4" s="6">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6">
-        <v>424.4</v>
+        <v>418.9</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E13" si="0">D4/(C4*2.2)</f>
-        <v>4.0189393939393936</v>
+        <f t="shared" si="0"/>
+        <v>3.6617132867132862</v>
       </c>
       <c r="F4" s="4">
         <f>((D4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 +Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
-        <v>255.4927415999245</v>
+        <v>237.37101585104108</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6">
         <v>418.9</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>3.6617132867132862</v>
+        <v>3.4001623376623371</v>
       </c>
       <c r="F5" s="4">
         <f>((D5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 +Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
-        <v>237.37101585104108</v>
+        <v>224.0363086554604</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6">
-        <v>418.9</v>
+        <v>468.5</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>3.4001623376623371</v>
+        <v>3.5492424242424243</v>
       </c>
       <c r="F6" s="4">
         <f>((D6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 +Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
-        <v>224.0363086554604</v>
+        <v>237.42022776127007</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D7" s="6">
-        <v>468.5</v>
+        <v>498.2</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>3.5492424242424243</v>
+        <v>3.354882154882155</v>
       </c>
       <c r="F7" s="4">
         <f>((D7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 +Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
-        <v>237.42022776127007</v>
+        <v>231.12435929046157</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="6">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6">
-        <v>498.2</v>
+        <v>542.29999999999995</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>3.354882154882155</v>
+        <v>3.2866666666666662</v>
       </c>
       <c r="F8" s="4">
         <f>((D8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 +Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
-        <v>231.12435929046157</v>
+        <v>234.33292171663294</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D9" s="6">
-        <v>542.29999999999995</v>
+        <v>468.5</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>3.2866666666666662</v>
+        <v>2.5812672176308538</v>
       </c>
       <c r="F9" s="4">
         <f>((D9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 +Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
-        <v>234.33292171663294</v>
+        <v>191.65255825783331</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6">
-        <v>468.5</v>
+        <v>573.20000000000005</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>2.5812672176308538</v>
+        <v>2.8949494949494947</v>
       </c>
       <c r="F10" s="4">
         <f>((D10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 +Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
-        <v>191.65255825783331</v>
+        <v>225.12802155713979</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6">
-        <v>573.20000000000005</v>
+        <v>532.4</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>2.8949494949494947</v>
+        <v>2.4199999999999995</v>
       </c>
       <c r="F11" s="4">
         <f>((D11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 +Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
-        <v>225.12802155713979</v>
+        <v>201.48516265031091</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6">
-        <v>532.4</v>
+        <v>573.20000000000005</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>2.4199999999999995</v>
+        <v>2.368595041322314</v>
       </c>
       <c r="F12" s="4">
         <f>((D12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 +Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
-        <v>201.48516265031091</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="6">
-        <v>110</v>
-      </c>
-      <c r="D13" s="6">
-        <v>573.20000000000005</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>2.368595041322314</v>
-      </c>
-      <c r="F13" s="4">
-        <f>((D13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 +Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
         <v>211.84100129321362</v>
       </c>
     </row>
@@ -3655,10 +3655,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045BE198-35E4-4C95-91AB-69F293A738FE}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3670,229 +3670,229 @@
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6">
+        <v>600.79999999999995</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/(C2*2.2)</f>
+        <v>6.206611570247933</v>
+      </c>
+      <c r="F2" s="4">
+        <f>((D2/2.2)*500) / (Data!$J$15 + Data!$J$16*C2 + Data!$J$17*C2^2 + Data!$J$18*C2^3 + Data!$J$19*C2^4 + Data!$J$20*C2^5)</f>
+        <v>384.5312941688839</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6">
-        <v>600.79999999999995</v>
+        <v>899.5</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/(C3*2.2)</f>
-        <v>6.206611570247933</v>
+        <f t="shared" ref="E3:E12" si="0">D3/(C3*2.2)</f>
+        <v>8.5179924242424239</v>
       </c>
       <c r="F3" s="4">
         <f>((D3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 + Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
-        <v>384.5312941688839</v>
+        <v>541.50735407429795</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C4" s="6">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6">
-        <v>899.5</v>
+        <v>948</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E13" si="0">D4/(C4*2.2)</f>
-        <v>8.5179924242424239</v>
+        <f t="shared" si="0"/>
+        <v>8.2867132867132867</v>
       </c>
       <c r="F4" s="4">
         <f>((D4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 + Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
-        <v>541.50735407429795</v>
+        <v>537.18721180899252</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6">
-        <v>948</v>
+        <v>983.3</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>8.2867132867132867</v>
+        <v>7.9813311688311677</v>
       </c>
       <c r="F5" s="4">
         <f>((D5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 + Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
-        <v>537.18721180899252</v>
+        <v>525.88900047962329</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6">
         <v>60</v>
       </c>
-      <c r="C6" s="6">
-        <v>56</v>
-      </c>
       <c r="D6" s="6">
-        <v>983.3</v>
+        <v>1069.2</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>7.9813311688311677</v>
+        <v>8.1</v>
       </c>
       <c r="F6" s="4">
         <f>((D6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 + Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
-        <v>525.88900047962329</v>
+        <v>541.8350213924225</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D7" s="6">
-        <v>1069.2</v>
+        <v>1135.4000000000001</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>8.1</v>
+        <v>7.645791245791246</v>
       </c>
       <c r="F7" s="4">
         <f>((D7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 + Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
-        <v>541.8350213924225</v>
+        <v>526.73343544437989</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="6">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6">
-        <v>1135.4000000000001</v>
+        <v>1210.3</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>7.645791245791246</v>
+        <v>7.335151515151515</v>
       </c>
       <c r="F8" s="4">
         <f>((D8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 + Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
-        <v>526.73343544437989</v>
+        <v>522.98199364492143</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D9" s="6">
-        <v>1210.3</v>
+        <v>1069.2</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>7.335151515151515</v>
+        <v>5.8909090909090907</v>
       </c>
       <c r="F9" s="4">
         <f>((D9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 + Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
-        <v>522.98199364492143</v>
+        <v>437.38509133249812</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6">
-        <v>1069.2</v>
+        <v>1424.2</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>5.8909090909090907</v>
+        <v>7.1929292929292918</v>
       </c>
       <c r="F10" s="4">
         <f>((D10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 + Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
-        <v>437.38509133249812</v>
+        <v>559.36379675798753</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6">
-        <v>1424.2</v>
+        <v>1232.4000000000001</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>7.1929292929292918</v>
+        <v>5.6018181818181816</v>
       </c>
       <c r="F11" s="4">
         <f>((D11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 + Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
-        <v>559.36379675798753</v>
+        <v>466.3980361574815</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6">
-        <v>1232.4000000000001</v>
+        <v>1480.4</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>5.6018181818181816</v>
+        <v>6.1173553719008265</v>
       </c>
       <c r="F12" s="4">
         <f>((D12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 + Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
-        <v>466.3980361574815</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="6">
-        <v>110</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1480.4</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>6.1173553719008265</v>
-      </c>
-      <c r="F13" s="4">
-        <f>((D13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 + Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
         <v>547.12040878310086</v>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
   <dimension ref="B1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H1" sqref="H1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7150,7 +7150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360F033-907C-4E12-8507-1910F4CF6D65}">
   <dimension ref="B1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView zoomScale="103" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -10060,10 +10060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8E5A40-B044-4545-B236-178F265A3E95}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10075,248 +10075,248 @@
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6">
+        <v>363.8</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/(C2*2.2)</f>
+        <v>3.18006993006993</v>
+      </c>
+      <c r="F2" s="4">
+        <f>((D2/2.2)*500) / (Data!$J$8 + Data!$J$9*C2 + Data!$J$10*C2^2 + Data!$J$11*C2^3 + Data!$J$12*C2^4 + Data!$J$13*C2^5)</f>
+        <v>162.26777647722309</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6">
-        <v>363.8</v>
+        <v>385.8</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/(C3*2.2)</f>
-        <v>3.18006993006993</v>
+        <f t="shared" ref="E3:E13" si="0">D3/(C3*2.2)</f>
+        <v>3.1314935064935061</v>
       </c>
       <c r="F3" s="4">
         <f>((D3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
-        <v>162.26777647722309</v>
+        <v>159.6419834876825</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
-        <v>385.8</v>
+        <v>535.70000000000005</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E14" si="0">D4/(C4*2.2)</f>
-        <v>3.1314935064935061</v>
+        <f t="shared" si="0"/>
+        <v>4.0583333333333336</v>
       </c>
       <c r="F4" s="4">
         <f>((D4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
-        <v>159.6419834876825</v>
+        <v>207.67487661192092</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D5" s="6">
-        <v>535.70000000000005</v>
+        <v>583.1</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>4.0583333333333336</v>
+        <v>3.9265993265993266</v>
       </c>
       <c r="F5" s="4">
         <f>((D5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
-        <v>207.67487661192092</v>
+        <v>204.35422339437085</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6">
-        <v>583.1</v>
+        <v>668</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>3.9265993265993266</v>
+        <v>4.0484848484848488</v>
       </c>
       <c r="F6" s="4">
         <f>((D6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
-        <v>204.35422339437085</v>
+        <v>216.35927101130713</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D7" s="6">
-        <v>668</v>
+        <v>672.4</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0484848484848488</v>
+        <v>3.7046831955922856</v>
       </c>
       <c r="F7" s="4">
         <f>((D7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
-        <v>216.35927101130713</v>
+        <v>204.74779488917525</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6">
-        <v>672.4</v>
+        <v>622.79999999999995</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>3.7046831955922856</v>
+        <v>3.1454545454545446</v>
       </c>
       <c r="F8" s="4">
         <f>((D8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
-        <v>204.74779488917525</v>
+        <v>180.72355943834526</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
-        <v>622.79999999999995</v>
+        <v>744.1</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>3.1454545454545446</v>
+        <v>3.3822727272727269</v>
       </c>
       <c r="F9" s="4">
         <f>((D9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
-        <v>180.72355943834526</v>
+        <v>205.84142200260862</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D10" s="6">
-        <v>744.1</v>
+        <v>815.7</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>3.3822727272727269</v>
+        <v>3.3706611570247933</v>
       </c>
       <c r="F10" s="4">
         <f>((D10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
-        <v>205.84142200260862</v>
+        <v>218.19723437576295</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D11" s="6">
-        <v>815.7</v>
+        <v>853.2</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>3.3706611570247933</v>
+        <v>3.1025454545454547</v>
       </c>
       <c r="F11" s="4">
         <f>((D11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
-        <v>218.19723437576295</v>
+        <v>220.99619667120635</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D12" s="6">
-        <v>853.2</v>
+        <v>705.5</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>3.1025454545454547</v>
+        <v>2.2905844155844157</v>
       </c>
       <c r="F12" s="4">
         <f>((D12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
-        <v>220.99619667120635</v>
+        <v>179.19914100240959</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6">
-        <v>705.5</v>
+        <v>1080.3</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>2.2905844155844157</v>
+        <v>3.2736363636363635</v>
       </c>
       <c r="F13" s="4">
         <f>((D13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
-        <v>179.19914100240959</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6">
-        <v>150</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1080.3</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2736363636363635</v>
-      </c>
-      <c r="F14" s="4">
-        <f>((D14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
         <v>271.69320263371651</v>
       </c>
     </row>
@@ -10327,256 +10327,256 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB22E42-A8CB-414A-9166-81C7E5F1C97D}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6">
+        <v>220.5</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/(C2*2.2)</f>
+        <v>1.9274475524475523</v>
+      </c>
+      <c r="F2" s="4">
+        <f>((D2/2.2)*500) / (Data!$J$8 + Data!$J$9*C2 + Data!$J$10*C2^2 + Data!$J$11*C2^3 + Data!$J$12*C2^4 + Data!$J$13*C2^5)</f>
+        <v>98.350865072093697</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6">
-        <v>220.5</v>
+        <v>253.5</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/(C3*2.2)</f>
-        <v>1.9274475524475523</v>
+        <f t="shared" ref="E3:E13" si="0">D3/(C3*2.2)</f>
+        <v>2.0576298701298699</v>
       </c>
       <c r="F3" s="4">
         <f>((D3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
-        <v>98.350865072093697</v>
+        <v>104.8969487146903</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
-        <v>253.5</v>
+        <v>335.1</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E14" si="0">D4/(C4*2.2)</f>
-        <v>2.0576298701298699</v>
+        <f t="shared" si="0"/>
+        <v>2.538636363636364</v>
       </c>
       <c r="F4" s="4">
         <f>((D4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
-        <v>104.8969487146903</v>
+        <v>129.90825303836979</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D5" s="6">
-        <v>335.1</v>
+        <v>392.4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>2.538636363636364</v>
+        <v>2.6424242424242421</v>
       </c>
       <c r="F5" s="4">
         <f>((D5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
-        <v>129.90825303836979</v>
+        <v>137.52117520142531</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6">
-        <v>392.4</v>
+        <v>438.7</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>2.6424242424242421</v>
+        <v>2.6587878787878787</v>
       </c>
       <c r="F6" s="4">
         <f>((D6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
-        <v>137.52117520142531</v>
+        <v>142.09103621655751</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D7" s="6">
-        <v>438.7</v>
+        <v>440.9</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>2.6587878787878787</v>
+        <v>2.4292011019283741</v>
       </c>
       <c r="F7" s="4">
         <f>((D7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
-        <v>142.09103621655751</v>
+        <v>134.25535807054931</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6">
-        <v>440.9</v>
+        <v>474</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>2.4292011019283741</v>
+        <v>2.3939393939393936</v>
       </c>
       <c r="F8" s="4">
         <f>((D8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
-        <v>134.25535807054931</v>
+        <v>137.54490554556145</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
-        <v>474</v>
+        <v>524.70000000000005</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>2.3939393939393936</v>
+        <v>2.3849999999999998</v>
       </c>
       <c r="F9" s="4">
         <f>((D9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
-        <v>137.54490554556145</v>
+        <v>145.14849364973625</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D10" s="6">
-        <v>524.70000000000005</v>
+        <v>584.20000000000005</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>2.3849999999999998</v>
+        <v>2.4140495867768594</v>
       </c>
       <c r="F10" s="4">
         <f>((D10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
-        <v>145.14849364973625</v>
+        <v>156.27169832330605</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D11" s="6">
-        <v>584.20000000000005</v>
+        <v>501.6</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>2.4140495867768594</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="F11" s="4">
         <f>((D11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
-        <v>156.27169832330605</v>
+        <v>129.92462757885269</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D12" s="6">
-        <v>501.6</v>
+        <v>463</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>1.8240000000000001</v>
+        <v>1.5032467532467533</v>
       </c>
       <c r="F12" s="4">
         <f>((D12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
-        <v>129.92462757885269</v>
+        <v>117.60340508024898</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6">
-        <v>463</v>
+        <v>619.5</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>1.5032467532467533</v>
+        <v>1.8772727272727272</v>
       </c>
       <c r="F13" s="4">
         <f>((D13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
-        <v>117.60340508024898</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="6">
-        <v>150</v>
-      </c>
-      <c r="D14" s="6">
-        <v>619.5</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8772727272727272</v>
-      </c>
-      <c r="F14" s="4">
-        <f>((D14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
         <v>155.80296124371691</v>
       </c>
     </row>
@@ -10587,162 +10587,181 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8C4994-989E-4DB6-ABDE-D8C29797DC9B}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="7">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7">
+        <v>253.5</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/(C2*2.2)</f>
+        <v>2.2159090909090908</v>
+      </c>
+      <c r="F2" s="4">
+        <f>((D2/2.2)*500) / (Data!$J$8 + Data!$J$9*C2 + Data!$J$10*C2^2 + Data!$J$11*C2^3 + Data!$J$12*C2^4 + Data!$J$13*C2^5)</f>
+        <v>113.07004215771317</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7">
-        <v>253.5</v>
+        <v>512.6</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/(C3*2.2)</f>
-        <v>2.2159090909090908</v>
+        <f t="shared" ref="E3:E13" si="0">D3/(C3*2.2)</f>
+        <v>4.1607142857142856</v>
       </c>
       <c r="F3" s="4">
         <f>((D3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
-        <v>113.07004215771317</v>
+        <v>212.11114757850197</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>512.6</v>
+        <v>606.29999999999995</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E14" si="0">D4/(C4*2.2)</f>
-        <v>4.1607142857142856</v>
+        <f t="shared" si="0"/>
+        <v>4.5931818181818178</v>
       </c>
       <c r="F4" s="4">
         <f>((D4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
-        <v>212.11114757850197</v>
+        <v>235.04438620460638</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="7">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D5" s="7">
-        <v>606.29999999999995</v>
+        <v>655.9</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>4.5931818181818178</v>
+        <v>4.4168350168350168</v>
       </c>
       <c r="F5" s="4">
         <f>((D5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
-        <v>235.04438620460638</v>
+        <v>229.86783591899814</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="D6" s="7">
-        <v>655.9</v>
+        <v>750.7</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>4.4168350168350168</v>
+        <v>4.5496969696969698</v>
       </c>
       <c r="F6" s="4">
         <f>((D6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
-        <v>229.86783591899814</v>
+        <v>243.14506698830581</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D7" s="7">
-        <v>750.7</v>
+        <v>771.6</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>4.5496969696969698</v>
+        <v>4.2512396694214871</v>
       </c>
       <c r="F7" s="4">
         <f>((D7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
-        <v>243.14506698830581</v>
+        <v>234.95448919763177</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7">
-        <v>771.6</v>
+        <v>406.6</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>4.2512396694214871</v>
+        <v>2.0535353535353535</v>
       </c>
       <c r="F8" s="4">
         <f>((D8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
-        <v>234.95448919763177</v>
+        <v>117.98683247853435</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D9" s="7">
-        <v>406.6</v>
+        <v>844.4</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>2.0535353535353535</v>
+        <v>3.8381818181818175</v>
       </c>
       <c r="F9" s="4">
         <f>((D9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
-        <v>117.98683247853435</v>
+        <v>233.58755105362548</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -10750,93 +10769,74 @@
         <v>9</v>
       </c>
       <c r="C10" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7">
-        <v>844.4</v>
+        <v>837.8</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>3.8381818181818175</v>
+        <v>3.4619834710743795</v>
       </c>
       <c r="F10" s="4">
         <f>((D10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
-        <v>233.58755105362548</v>
+        <v>224.10891621921564</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D11" s="7">
-        <v>837.8</v>
+        <v>843.3</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>3.4619834710743795</v>
+        <v>3.0665454545454542</v>
       </c>
       <c r="F11" s="4">
         <f>((D11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
-        <v>224.10891621921564</v>
+        <v>218.43189481109738</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="7">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D12" s="7">
-        <v>843.3</v>
+        <v>705.5</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>3.0665454545454542</v>
+        <v>2.2905844155844157</v>
       </c>
       <c r="F12" s="4">
         <f>((D12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
-        <v>218.43189481109738</v>
+        <v>179.19914100240959</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="7">
-        <v>140</v>
-      </c>
-      <c r="D13" s="7">
-        <v>705.5</v>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6">
+        <v>150</v>
+      </c>
+      <c r="D13" s="6">
+        <v>881.8</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>2.2905844155844157</v>
+        <v>2.6721212121212119</v>
       </c>
       <c r="F13" s="4">
         <f>((D13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
-        <v>179.19914100240959</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="6">
-        <v>150</v>
-      </c>
-      <c r="D14" s="6">
-        <v>881.8</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6721212121212119</v>
-      </c>
-      <c r="F14" s="4">
-        <f>((D14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
         <v>221.77086557660948</v>
       </c>
     </row>
@@ -10847,162 +10847,181 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B562DC9-99AB-4A23-98BC-E911B85042EB}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6">
+        <v>788.2</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/(C2*2.2)</f>
+        <v>6.88986013986014</v>
+      </c>
+      <c r="F2" s="4">
+        <f>((D2/2.2)*500) / (Data!$J$8 + Data!$J$9*C2 + Data!$J$10*C2^2 + Data!$J$11*C2^3 + Data!$J$12*C2^4 + Data!$J$13*C2^5)</f>
+        <v>351.56531451167461</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6">
-        <v>788.2</v>
+        <v>1162.9000000000001</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/(C3*2.2)</f>
-        <v>6.88986013986014</v>
+        <f t="shared" ref="E3:E13" si="0">D3/(C3*2.2)</f>
+        <v>9.4391233766233764</v>
       </c>
       <c r="F3" s="4">
         <f>((D3/2.2)*500) / (Data!$J$8 + Data!$J$9*C3 + Data!$J$10*C3^2 + Data!$J$11*C3^3 + Data!$J$12*C3^4 + Data!$J$13*C3^5)</f>
-        <v>351.56531451167461</v>
+        <v>481.20182114522038</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
-        <v>1162.9000000000001</v>
+        <v>1372.4</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E14" si="0">D4/(C4*2.2)</f>
-        <v>9.4391233766233764</v>
+        <f t="shared" si="0"/>
+        <v>10.396969696969698</v>
       </c>
       <c r="F4" s="4">
         <f>((D4/2.2)*500) / (Data!$J$8 + Data!$J$9*C4 + Data!$J$10*C4^2 + Data!$J$11*C4^3 + Data!$J$12*C4^4 + Data!$J$13*C4^5)</f>
-        <v>481.20182114522038</v>
+        <v>532.03845559492299</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D5" s="6">
-        <v>1372.4</v>
+        <v>1555.4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>10.396969696969698</v>
+        <v>10.474074074074075</v>
       </c>
       <c r="F5" s="4">
         <f>((D5/2.2)*500) / (Data!$J$8 + Data!$J$9*C5 + Data!$J$10*C5^2 + Data!$J$11*C5^3 + Data!$J$12*C5^4 + Data!$J$13*C5^5)</f>
-        <v>532.03845559492299</v>
+        <v>545.10814451655699</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6">
-        <v>1555.4</v>
+        <v>1848.6</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>10.474074074074075</v>
+        <v>11.203636363636363</v>
       </c>
       <c r="F6" s="4">
         <f>((D6/2.2)*500) / (Data!$J$8 + Data!$J$9*C6 + Data!$J$10*C6^2 + Data!$J$11*C6^3 + Data!$J$12*C6^4 + Data!$J$13*C6^5)</f>
-        <v>545.10814451655699</v>
+        <v>598.74513232260824</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D7" s="6">
-        <v>1848.6</v>
+        <v>1802.3</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>11.203636363636363</v>
+        <v>9.930027548209365</v>
       </c>
       <c r="F7" s="4">
         <f>((D7/2.2)*500) / (Data!$J$8 + Data!$J$9*C7 + Data!$J$10*C7^2 + Data!$J$11*C7^3 + Data!$J$12*C7^4 + Data!$J$13*C7^5)</f>
-        <v>598.74513232260824</v>
+        <v>548.80569709809708</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6">
-        <v>1802.3</v>
+        <v>1686.5</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>9.930027548209365</v>
+        <v>8.5176767676767664</v>
       </c>
       <c r="F8" s="4">
         <f>((D8/2.2)*500) / (Data!$J$8 + Data!$J$9*C8 + Data!$J$10*C8^2 + Data!$J$11*C8^3 + Data!$J$12*C8^4 + Data!$J$13*C8^5)</f>
-        <v>548.80569709809708</v>
+        <v>489.38709536411261</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
-        <v>1686.5</v>
+        <v>1943.4</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>8.5176767676767664</v>
+        <v>8.8336363636363622</v>
       </c>
       <c r="F9" s="4">
         <f>((D9/2.2)*500) / (Data!$J$8 + Data!$J$9*C9 + Data!$J$10*C9^2 + Data!$J$11*C9^3 + Data!$J$12*C9^4 + Data!$J$13*C9^5)</f>
-        <v>489.38709536411261</v>
+        <v>537.60545561062975</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -11010,93 +11029,74 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D10" s="6">
-        <v>1943.4</v>
+        <v>2105.4</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>8.8336363636363622</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F10" s="4">
         <f>((D10/2.2)*500) / (Data!$J$8 + Data!$J$9*C10 + Data!$J$10*C10^2 + Data!$J$11*C10^3 + Data!$J$12*C10^4 + Data!$J$13*C10^5)</f>
-        <v>537.60545561062975</v>
+        <v>563.18800693236653</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D11" s="6">
-        <v>2105.4</v>
+        <v>2157.1999999999998</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>8.6999999999999993</v>
+        <v>7.844363636363636</v>
       </c>
       <c r="F11" s="4">
         <f>((D11/2.2)*500) / (Data!$J$8 + Data!$J$9*C11 + Data!$J$10*C11^2 + Data!$J$11*C11^3 + Data!$J$12*C11^4 + Data!$J$13*C11^5)</f>
-        <v>563.18800693236653</v>
+        <v>558.75878511383758</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D12" s="6">
-        <v>2157.1999999999998</v>
+        <v>1791.3</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>7.844363636363636</v>
+        <v>5.8159090909090905</v>
       </c>
       <c r="F12" s="4">
         <f>((D12/2.2)*500) / (Data!$J$8 + Data!$J$9*C12 + Data!$J$10*C12^2 + Data!$J$11*C12^3 + Data!$J$12*C12^4 + Data!$J$13*C12^5)</f>
-        <v>558.75878511383758</v>
+        <v>454.99563611285095</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6">
-        <v>1791.3</v>
+        <v>2452.6</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>5.8159090909090905</v>
+        <v>7.4321212121212117</v>
       </c>
       <c r="F13" s="4">
         <f>((D13/2.2)*500) / (Data!$J$8 + Data!$J$9*C13 + Data!$J$10*C13^2 + Data!$J$11*C13^3 + Data!$J$12*C13^4 + Data!$J$13*C13^5)</f>
-        <v>454.99563611285095</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6">
-        <v>150</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2452.6</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>7.4321212121212117</v>
-      </c>
-      <c r="F14" s="4">
-        <f>((D14/2.2)*500) / (Data!$J$8 + Data!$J$9*C14 + Data!$J$10*C14^2 + Data!$J$11*C14^3 + Data!$J$12*C14^4 + Data!$J$13*C14^5)</f>
         <v>616.82379781491534</v>
       </c>
     </row>
@@ -11107,105 +11107,124 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725CA7E6-274F-44F9-9097-F9A973F00E58}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6">
+        <v>187.4</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/(C2*2.2)</f>
+        <v>1.9359504132231404</v>
+      </c>
+      <c r="F2" s="4">
+        <f>((D2/2.2)*500) / (Data!$J$15 + Data!$J$16*C2 + Data!$J$17*C2^2 +Data!$J$18*C2^3 + Data!$J$19*C2^4 + Data!$J$20*C2^5)</f>
+        <v>119.94201818783097</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6">
-        <v>187.4</v>
+        <v>315.3</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/(C3*2.2)</f>
-        <v>1.9359504132231404</v>
+        <f t="shared" ref="E3:E12" si="0">D3/(C3*2.2)</f>
+        <v>2.9857954545454546</v>
       </c>
       <c r="F3" s="4">
         <f>((D3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 +Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
-        <v>119.94201818783097</v>
+        <v>189.81352833754997</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6">
-        <v>315.3</v>
+        <v>345</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E13" si="0">D4/(C4*2.2)</f>
-        <v>2.9857954545454546</v>
+        <f t="shared" si="0"/>
+        <v>3.0157342657342654</v>
       </c>
       <c r="F4" s="4">
         <f>((D4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 +Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
-        <v>189.81352833754997</v>
+        <v>195.4953460697283</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>3.0157342657342654</v>
+        <v>3.0600649350649345</v>
       </c>
       <c r="F5" s="4">
         <f>((D5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 +Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
-        <v>195.4953460697283</v>
+        <v>201.62732958488559</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="6">
         <v>60</v>
       </c>
-      <c r="C6" s="6">
-        <v>56</v>
-      </c>
       <c r="D6" s="6">
-        <v>377</v>
+        <v>392.4</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>3.0600649350649345</v>
+        <v>2.9727272727272727</v>
       </c>
       <c r="F6" s="4">
         <f>((D6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 +Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
-        <v>201.62732958488559</v>
+        <v>198.85527721136046</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -11213,131 +11232,112 @@
         <v>61</v>
       </c>
       <c r="C7" s="6">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D7" s="6">
-        <v>392.4</v>
+        <v>413.4</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>2.9727272727272727</v>
+        <v>2.7838383838383836</v>
       </c>
       <c r="F7" s="4">
         <f>((D7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 +Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
-        <v>198.85527721136046</v>
+        <v>191.78404281548936</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="6">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6">
-        <v>413.4</v>
+        <v>453</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>2.7838383838383836</v>
+        <v>2.7454545454545456</v>
       </c>
       <c r="F8" s="4">
         <f>((D8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 +Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
-        <v>191.78404281548936</v>
+        <v>195.74555326873454</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D9" s="6">
-        <v>453</v>
+        <v>440.9</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>2.7454545454545456</v>
+        <v>2.4292011019283741</v>
       </c>
       <c r="F9" s="4">
         <f>((D9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 +Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
-        <v>195.74555326873454</v>
+        <v>180.36203401468237</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6">
-        <v>440.9</v>
+        <v>564.4</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>2.4292011019283741</v>
+        <v>2.85050505050505</v>
       </c>
       <c r="F10" s="4">
         <f>((D10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 +Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
-        <v>180.36203401468237</v>
+        <v>221.67176442227785</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6">
-        <v>564.4</v>
+        <v>440.9</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>2.85050505050505</v>
+        <v>2.0040909090909089</v>
       </c>
       <c r="F11" s="4">
         <f>((D11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 +Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
-        <v>221.67176442227785</v>
+        <v>166.85726561330216</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6">
-        <v>440.9</v>
+        <v>608.5</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>2.0040909090909089</v>
+        <v>2.5144628099173549</v>
       </c>
       <c r="F12" s="4">
         <f>((D12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 +Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
-        <v>166.85726561330216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="6">
-        <v>110</v>
-      </c>
-      <c r="D13" s="6">
-        <v>608.5</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5144628099173549</v>
-      </c>
-      <c r="F13" s="4">
-        <f>((D13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 +Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
         <v>224.88703643914945</v>
       </c>
     </row>
@@ -11348,105 +11348,124 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18C3D7B-83D2-4907-84B4-9FEDFAAB16BD}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/(C2*2.2)</f>
+        <v>1.4235537190082643</v>
+      </c>
+      <c r="F2" s="4">
+        <f>((D2/2.2)*500) / (Data!$J$15 + Data!$J$16*C2 + Data!$J$17*C2^2 + Data!$J$18*C2^3 + Data!$J$19*C2^4 + Data!$J$20*C2^5)</f>
+        <v>88.19642532701765</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6">
-        <v>137.80000000000001</v>
+        <v>198.4</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/(C3*2.2)</f>
-        <v>1.4235537190082643</v>
+        <f t="shared" ref="E3:E12" si="0">D3/(C3*2.2)</f>
+        <v>1.8787878787878787</v>
       </c>
       <c r="F3" s="4">
         <f>((D3/2.2)*500) / (Data!$J$15 + Data!$J$16*C3 + Data!$J$17*C3^2 + Data!$J$18*C3^3 + Data!$J$19*C3^4 + Data!$J$20*C3^5)</f>
-        <v>88.19642532701765</v>
+        <v>119.43864263295245</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6">
-        <v>198.4</v>
+        <v>237</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E13" si="0">D4/(C4*2.2)</f>
-        <v>1.8787878787878787</v>
+        <f t="shared" si="0"/>
+        <v>2.0716783216783217</v>
       </c>
       <c r="F4" s="4">
         <f>((D4/2.2)*500) / (Data!$J$15 + Data!$J$16*C4 + Data!$J$17*C4^2 + Data!$J$18*C4^3 + Data!$J$19*C4^4 + Data!$J$20*C4^5)</f>
-        <v>119.43864263295245</v>
+        <v>134.29680295224813</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6">
-        <v>237</v>
+        <v>256.8</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>2.0716783216783217</v>
+        <v>2.0844155844155843</v>
       </c>
       <c r="F5" s="4">
         <f>((D5/2.2)*500) / (Data!$J$15 + Data!$J$16*C5 + Data!$J$17*C5^2 + Data!$J$18*C5^3 + Data!$J$19*C5^4 + Data!$J$20*C5^5)</f>
-        <v>134.29680295224813</v>
+        <v>137.34190513898838</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6">
-        <v>256.8</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>2.0844155844155843</v>
+        <v>2.2795454545454543</v>
       </c>
       <c r="F6" s="4">
         <f>((D6/2.2)*500) / (Data!$J$15 + Data!$J$16*C6 + Data!$J$17*C6^2 + Data!$J$18*C6^3 + Data!$J$19*C6^4 + Data!$J$20*C6^5)</f>
-        <v>137.34190513898838</v>
+        <v>152.48611853439948</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -11454,131 +11473,112 @@
         <v>70</v>
       </c>
       <c r="C7" s="6">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D7" s="6">
-        <v>300.89999999999998</v>
+        <v>317.5</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>2.2795454545454543</v>
+        <v>2.138047138047138</v>
       </c>
       <c r="F7" s="4">
         <f>((D7/2.2)*500) / (Data!$J$15 + Data!$J$16*C7 + Data!$J$17*C7^2 + Data!$J$18*C7^3 + Data!$J$19*C7^4 + Data!$J$20*C7^5)</f>
-        <v>152.48611853439948</v>
+        <v>147.29422736796778</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="6">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6">
-        <v>317.5</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>2.138047138047138</v>
+        <v>1.7369696969696971</v>
       </c>
       <c r="F8" s="4">
         <f>((D8/2.2)*500) / (Data!$J$15 + Data!$J$16*C8 + Data!$J$17*C8^2 + Data!$J$18*C8^3 + Data!$J$19*C8^4 + Data!$J$20*C8^5)</f>
-        <v>147.29422736796778</v>
+        <v>123.84255092013095</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="6">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D9" s="6">
-        <v>286.60000000000002</v>
+        <v>253.5</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>1.7369696969696971</v>
+        <v>1.3966942148760328</v>
       </c>
       <c r="F9" s="4">
         <f>((D9/2.2)*500) / (Data!$J$15 + Data!$J$16*C9 + Data!$J$17*C9^2 + Data!$J$18*C9^3 + Data!$J$19*C9^4 + Data!$J$20*C9^5)</f>
-        <v>123.84255092013095</v>
+        <v>103.70101071154907</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6">
-        <v>253.5</v>
+        <v>302</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>1.3966942148760328</v>
+        <v>1.5252525252525251</v>
       </c>
       <c r="F10" s="4">
         <f>((D10/2.2)*500) / (Data!$J$15 + Data!$J$16*C10 + Data!$J$17*C10^2 + Data!$J$18*C10^3 + Data!$J$19*C10^4 + Data!$J$20*C10^5)</f>
-        <v>103.70101071154907</v>
+        <v>118.61246076457817</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>1.5252525252525251</v>
+        <v>1.177272727272727</v>
       </c>
       <c r="F11" s="4">
         <f>((D11/2.2)*500) / (Data!$J$15 + Data!$J$16*C11 + Data!$J$17*C11^2 + Data!$J$18*C11^3 + Data!$J$19*C11^4 + Data!$J$20*C11^5)</f>
-        <v>118.61246076457817</v>
+        <v>98.017763197653139</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C12" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6">
-        <v>259</v>
+        <v>369.3</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>1.177272727272727</v>
+        <v>1.5260330578512395</v>
       </c>
       <c r="F12" s="4">
         <f>((D12/2.2)*500) / (Data!$J$15 + Data!$J$16*C12 + Data!$J$17*C12^2 + Data!$J$18*C12^3 + Data!$J$19*C12^4 + Data!$J$20*C12^5)</f>
-        <v>98.017763197653139</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="6">
-        <v>110</v>
-      </c>
-      <c r="D13" s="6">
-        <v>369.3</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5260330578512395</v>
-      </c>
-      <c r="F13" s="4">
-        <f>((D13/2.2)*500) / (Data!$J$15 + Data!$J$16*C13 + Data!$J$17*C13^2 + Data!$J$18*C13^3 + Data!$J$19*C13^4 + Data!$J$20*C13^5)</f>
         <v>136.48444134260953</v>
       </c>
     </row>
